--- a/stock_historical_data/1d/HDFCAMC.NS.xlsx
+++ b/stock_historical_data/1d/HDFCAMC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1474"/>
+  <dimension ref="A1:R1479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81445,7 +81445,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81499,7 +81501,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81553,7 +81557,9 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
@@ -81607,7 +81613,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81661,7 +81669,9 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81715,7 +81725,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81769,7 +81781,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81823,7 +81837,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81877,7 +81893,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81931,7 +81949,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81985,7 +82005,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -82039,7 +82061,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -82093,7 +82117,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -82147,7 +82173,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82201,7 +82229,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82255,7 +82285,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82309,7 +82341,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82363,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82417,7 +82453,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82471,7 +82509,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82525,7 +82565,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82579,7 +82621,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82633,7 +82677,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82679,7 +82725,7 @@
         <v>30</v>
       </c>
       <c r="O1469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1469" t="n">
         <v>0</v>
@@ -82687,7 +82733,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82741,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82795,7 +82845,9 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
@@ -82849,7 +82901,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82903,7 +82957,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -82957,7 +83013,279 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>4105.7001953125</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>4159.75</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>4114.25</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>4114.25</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>618850</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>4138.7998046875</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>4211.9501953125</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>4120.2998046875</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>4182.85009765625</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>4182.85009765625</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>497432</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>4150</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>4160</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>4123.7998046875</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>4123.7998046875</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>809935</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>4049.949951171875</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>4068.89990234375</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>3955.550048828125</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>4029.64990234375</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>4029.64990234375</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>815067</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>4050</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>4119.2001953125</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>3961.60009765625</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>3984.10009765625</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>3984.10009765625</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>704495</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCAMC.NS.xlsx
+++ b/stock_historical_data/1d/HDFCAMC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1479"/>
+  <dimension ref="A1:R1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83069,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83123,7 +83125,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83177,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83231,7 +83237,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83285,7 +83293,1683 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>4068</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>4095.050048828125</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>4021</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>4069.449951171875</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>4069.449951171875</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>457866</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>4066</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>4179.85009765625</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>4055.39990234375</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>4108.75</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>4108.75</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>386410</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>4165.75</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>4189.14990234375</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>4112.2998046875</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>4133.25</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>4133.25</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>744893</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>4130.0498046875</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>4216.75</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>4070</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>4208.10009765625</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>4208.10009765625</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>420173</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>4210</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>4255.2001953125</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>4126.14990234375</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>4142.0498046875</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>4142.0498046875</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>525596</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>4192.7998046875</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>4201.10009765625</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>4134.39990234375</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>4144.10009765625</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>4144.10009765625</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>366484</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>4165</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>4244.85009765625</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>4162.0498046875</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>4216.2998046875</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>4216.2998046875</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>470082</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>4238.7001953125</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>4243.85009765625</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>4162.0498046875</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>4196.14990234375</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>4196.14990234375</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>884376</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>4214.7001953125</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>4316.9501953125</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>4175.7001953125</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>4298.75</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>4298.75</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>952912</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>4301</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>4395.7998046875</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>4286</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>4389.5498046875</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>4389.5498046875</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>829450</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>4395.0498046875</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>4438.85009765625</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>4425.39990234375</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>4425.39990234375</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>841618</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>4437</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>4378.0498046875</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>4385.75</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>4385.75</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>495805</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>4385</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>4433.85009765625</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>4365.60009765625</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>4405.5498046875</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>4405.5498046875</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>532929</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>4405.5498046875</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>4527.9501953125</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>4385.2998046875</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>4507.35009765625</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>4507.35009765625</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>829461</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>4508.5</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>4509.9501953125</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>4461.25</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>4474.9501953125</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>4474.9501953125</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>138783</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>4474.9501953125</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>4493.9501953125</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>4425.89990234375</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>4454</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>4454</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>508531</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>4454</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>4479.85009765625</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>4410.5</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>4420.5</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>4420.5</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>616110</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>4431.9501953125</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>4479.60009765625</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>4392.35009765625</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>4403.2998046875</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>4403.2998046875</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>224056</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>4404.10009765625</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>4468.0498046875</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>4360</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>4459.85009765625</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>4459.85009765625</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>515160</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>4416</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>4514.9501953125</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>4413.60009765625</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>4504.35009765625</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>4504.35009765625</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>350915</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>4514</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>4546.2001953125</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>4492.25</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>4514.35009765625</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>4514.35009765625</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>374350</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>4506</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>4539.7001953125</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>4405.10009765625</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>4418</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>4418</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>324473</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>4418</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>4418.0498046875</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>4370</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>4401.39990234375</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>4401.39990234375</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>319601</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>4429.89990234375</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>4448.39990234375</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>4323.5</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>4375.7001953125</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>4375.7001953125</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>512789</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>4376.0498046875</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>4458.9501953125</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>4376.0498046875</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>4401.85009765625</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>4401.85009765625</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>277593</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>4401.85009765625</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>4433.39990234375</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>4367.89990234375</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>4386.2998046875</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>4386.2998046875</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>233054</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>4404</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>4450</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>4386.64990234375</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>4422.39990234375</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>4422.39990234375</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>318264</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>4438</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>4464.60009765625</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>4397.2998046875</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>4433</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>4433</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>382297</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>4439.4501953125</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>4453.7998046875</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>4421.89990234375</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>4421.89990234375</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>278578</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>4421.89990234375</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>4486</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>4392.10009765625</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>4432.25</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>4432.25</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>190249</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>4440</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>4486</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>4299.89990234375</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>4389.7998046875</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>4389.7998046875</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>448615</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCAMC.NS.xlsx
+++ b/stock_historical_data/1d/HDFCAMC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1510"/>
+  <dimension ref="A1:R1532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83349,7 +83349,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83403,7 +83405,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83457,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83511,7 +83517,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83565,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83619,7 +83629,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83673,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83727,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83781,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83835,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83889,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83943,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -83997,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84051,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84105,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84159,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84213,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84267,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84321,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84375,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84429,7 +84469,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84483,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84537,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84591,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84645,7 +84693,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84699,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84753,7 +84805,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84807,7 +84861,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84861,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84915,7 +84973,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -84969,7 +85029,1197 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>4392</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>4414.9501953125</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>4360</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>4378.2998046875</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>4378.2998046875</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>737967</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>4385.5</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>4433</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>4330</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>4412.7998046875</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>4412.7998046875</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>415628</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>4422</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>4534.2998046875</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>4390</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>4479.14990234375</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>4479.14990234375</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>558134</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>4489.89990234375</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>4505.7001953125</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>4425.0498046875</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>4471.2001953125</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>4471.2001953125</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>261274</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>4490.39990234375</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>4541</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>4416</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>4527.5498046875</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>4527.5498046875</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>268104</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>4525</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>4525</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>4411</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>4420.5498046875</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>4420.5498046875</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>496527</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>4420</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>4275.5498046875</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>4299.2998046875</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>4299.2998046875</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>398612</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>4318</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>4390.7001953125</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>4301.75</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>4365</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>4365</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>335988</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>4292</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>4350</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>4201.0498046875</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>4225.64990234375</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>4225.64990234375</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>231145</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>4225</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>4289.64990234375</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>4184.64990234375</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>4219.4501953125</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>4219.4501953125</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>285684</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>4203</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>4237.9501953125</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>4102.25</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>4132.7998046875</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>4132.7998046875</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>483253</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>4100</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>4202</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>4189.4501953125</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>4189.4501953125</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>371923</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>4249.89990234375</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>4388.9501953125</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>4239.35009765625</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>4369.7998046875</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>4369.7998046875</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>692046</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>4360.5</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>4443.5498046875</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>4352.25</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>4410.4501953125</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>4410.4501953125</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>385531</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>4411</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>4455</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>4345</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>4449.39990234375</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>4449.39990234375</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>717931</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>4476.9501953125</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>4502</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>4414</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>4482.0498046875</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>4482.0498046875</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>497069</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>4499.89990234375</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>4604.25</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>4465.14990234375</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>4555.10009765625</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>4555.10009765625</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>1566800</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>4560</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>4864</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>4560</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>4827.89990234375</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>4827.89990234375</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>3365030</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>4824.0498046875</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>4824.0498046875</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>4690.2998046875</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>4728.64990234375</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>4728.64990234375</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>670142</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>4698.9501953125</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>4750.2001953125</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>4605</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>4709.75</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>4709.75</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>343633</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>4740.89990234375</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>4590.0498046875</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>4602.9501953125</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>4602.9501953125</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>607174</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>4602.9501953125</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>4647.89990234375</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>4490.5498046875</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>4510.85009765625</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>4510.85009765625</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>567025</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCAMC.NS.xlsx
+++ b/stock_historical_data/1d/HDFCAMC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1532"/>
+  <dimension ref="A1:R1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85085,7 +85085,9 @@
       <c r="Q1511" t="n">
         <v>2</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85139,7 +85141,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85193,7 +85197,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85247,7 +85253,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85301,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85355,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85409,7 +85421,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85463,7 +85477,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85517,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85571,7 +85589,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85625,7 +85645,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85679,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85733,7 +85757,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85787,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85841,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85895,7 +85925,9 @@
       <c r="Q1526" t="n">
         <v>2</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85949,7 +85981,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -85995,7 +86029,7 @@
         <v>42</v>
       </c>
       <c r="O1528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1528" t="n">
         <v>0</v>
@@ -86003,7 +86037,9 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
@@ -86057,7 +86093,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86111,7 +86149,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86165,7 +86205,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86219,7 +86261,333 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>4487</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>4569.9501953125</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>4440.0498046875</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>4499</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>4499</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>479935</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>4499</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>4540.85009765625</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>4361.5498046875</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>4434.4501953125</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>4434.4501953125</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>438469</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>4450</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>4515.39990234375</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>4305.0498046875</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>4342.25</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>4342.25</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>566207</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>4365.4501953125</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>4413.2998046875</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>4305</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>4337.5</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>4337.5</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>402585</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>4340</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>4435.35009765625</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>4216.5498046875</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>4419.0498046875</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>4419.0498046875</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>671047</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>4439</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>4439</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>4361.2001953125</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>4384.60009765625</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>4384.60009765625</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>325780</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCAMC.NS.xlsx
+++ b/stock_historical_data/1d/HDFCAMC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1538"/>
+  <dimension ref="A1:R1555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86317,7 +86317,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86371,7 +86373,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86425,7 +86429,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86479,7 +86485,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86533,7 +86541,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86587,7 +86597,927 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>4400.89990234375</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>4400.89990234375</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>4258.5</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>4299.4501953125</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>4299.4501953125</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>520292</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>4340</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>4359.14990234375</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>4310</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>4322.85009765625</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>4322.85009765625</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>55312</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>4342.0498046875</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>4342.0498046875</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>4227</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>4283.39990234375</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>4283.39990234375</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>560192</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>4294</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>4328</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>4182.5</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>4294</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>4294</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>859564</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>4509</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>4300</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>4498.4501953125</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>4498.4501953125</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>618525</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>4509.60009765625</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>4539</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>4458</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>4517.14990234375</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>4517.14990234375</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>276984</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>4529</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>4552.89990234375</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>4460.0498046875</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>4484.5498046875</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>4484.5498046875</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>265978</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>4484.5498046875</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>4392.64990234375</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>4450.0498046875</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>4450.0498046875</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>297456</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>4474</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>4540</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>4380.0498046875</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>4397.5</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>4397.5</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>477903</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>4360.9501953125</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>4372.10009765625</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>4220</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>4249.14990234375</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>4249.14990234375</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>364377</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>4249.0498046875</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>4360</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>4248.0498046875</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>4278.75</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>4278.75</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>393645</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>4276</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>4278.75</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>4167.0498046875</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>4182.35009765625</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>4182.35009765625</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>684781</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>4182</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>4229</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>4151.75</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>4190.14990234375</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>4190.14990234375</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>455486</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>4237.60009765625</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>4126.60009765625</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>4214.10009765625</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>4214.10009765625</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>873511</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>4224.60009765625</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>4240</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>4185.10009765625</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>4223.25</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>4223.25</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>472525</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>4304.9501953125</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>4373.35009765625</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>4272.2001953125</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>4343.4501953125</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>4343.4501953125</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>704527</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>4375.5</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>4375.5</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>4232</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>4238.4501953125</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>4238.4501953125</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>269426</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCAMC.NS.xlsx
+++ b/stock_historical_data/1d/HDFCAMC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1555"/>
+  <dimension ref="A1:R1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86653,7 +86653,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86707,7 +86709,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86761,7 +86765,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86815,7 +86821,9 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
@@ -86869,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86923,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86977,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87031,7 +87045,9 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -87085,7 +87101,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -87139,7 +87157,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -87193,7 +87213,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87247,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87301,7 +87325,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87347,7 +87373,7 @@
         <v>47</v>
       </c>
       <c r="O1552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1552" t="n">
         <v>0</v>
@@ -87355,7 +87381,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87409,7 +87437,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87463,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87517,7 +87549,387 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>4238.4501953125</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>4258.39990234375</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>4201</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>4241.89990234375</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>4241.89990234375</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>295543</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>4258.5498046875</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>4279.39990234375</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>4187</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>4209.75</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>4209.75</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>189382</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>4234</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>4235.75</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>4188</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>4204.25</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>4204.25</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>343667</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>4194</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>4296.14990234375</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>4179.64990234375</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>4250.0498046875</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>4250.0498046875</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>337700</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>4260.0498046875</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>4283.60009765625</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>4240.9501953125</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>4258.2998046875</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>4258.2998046875</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>369595</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>4274</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>4371.5</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>4260.4501953125</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>4362.60009765625</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>4362.60009765625</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>497596</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>4395</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>4395</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>4318.0498046875</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>4357</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>4357</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>395730</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCAMC.NS.xlsx
+++ b/stock_historical_data/1d/HDFCAMC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1562"/>
+  <dimension ref="A1:R1609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87605,7 +87605,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87659,7 +87661,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87713,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87767,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87821,7 +87829,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87875,7 +87885,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87929,7 +87941,2453 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>4384.85009765625</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>4407</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>4347.89990234375</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>4363.89990234375</v>
+      </c>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="n">
+        <v>205227</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>4356.0498046875</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>4510.75</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>4332.10009765625</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>4469.14990234375</v>
+      </c>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="n">
+        <v>596726</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>4475.7001953125</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>4480.75</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>4456.5</v>
+      </c>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="n">
+        <v>309645</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>4468.2001953125</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>4549.7998046875</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>4451.39990234375</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>4543.85009765625</v>
+      </c>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="n">
+        <v>329817</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>4547</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>4579.9501953125</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>4542.60009765625</v>
+      </c>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="n">
+        <v>283083</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>4539.0498046875</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>4543.10009765625</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>4538.85009765625</v>
+      </c>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="n">
+        <v>191648</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>4550</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>4578</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>4495.5498046875</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>4516.75</v>
+      </c>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="n">
+        <v>183965</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>4508.4501953125</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>4402</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>4415</v>
+      </c>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="n">
+        <v>312840</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>4410</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>4415.35009765625</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>4340</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>4368.14990234375</v>
+      </c>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="n">
+        <v>178229</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>4311</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>4407</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>4272.9501953125</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>4394.2001953125</v>
+      </c>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="n">
+        <v>394919</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>4399</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>4435.35009765625</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>4214.2998046875</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>4262.7998046875</v>
+      </c>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="n">
+        <v>418696</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>4275</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>4329.2001953125</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>4240</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>4249.64990234375</v>
+      </c>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="n">
+        <v>265286</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>4278.2998046875</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>4211</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>4216.60009765625</v>
+      </c>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="n">
+        <v>112838</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>4296</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>4296</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>4213.64990234375</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>4269.4501953125</v>
+      </c>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="n">
+        <v>286394</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>4270.35009765625</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>4324.4501953125</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>4252.9501953125</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>4263.10009765625</v>
+      </c>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="n">
+        <v>209846</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>4249</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>4298.9501953125</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>4177.75</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>4265.39990234375</v>
+      </c>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="n">
+        <v>513209</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>4230</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>4254.89990234375</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>4182.0498046875</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>4199.0498046875</v>
+      </c>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="n">
+        <v>397764</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>4199.9501953125</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>4217.7998046875</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>4145.10009765625</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>4162.5498046875</v>
+      </c>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="n">
+        <v>297058</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>4180</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>4292.5498046875</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>4160.0498046875</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>4281.9501953125</v>
+      </c>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="n">
+        <v>303954</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>4298</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>4310</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>4160.7998046875</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>4224.64990234375</v>
+      </c>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="n">
+        <v>476512</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>4238.4501953125</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>4022</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>4104.9501953125</v>
+      </c>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="n">
+        <v>825389</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>4090.89990234375</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>4129.89990234375</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>4062.449951171875</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>4071.699951171875</v>
+      </c>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="n">
+        <v>288911</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>4079.64990234375</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>4081.64990234375</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>3992</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>4062.449951171875</v>
+      </c>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="n">
+        <v>497575</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>4062.449951171875</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>4079.949951171875</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>3942</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>3950.39990234375</v>
+      </c>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="n">
+        <v>179478</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>3959.949951171875</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>3978.949951171875</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>3832.949951171875</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>3844.800048828125</v>
+      </c>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="n">
+        <v>473532</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>3800</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>3904.949951171875</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>3792.199951171875</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>3834.550048828125</v>
+      </c>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="n">
+        <v>398420</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>3852.35009765625</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>3947.10009765625</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>3813.35009765625</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>3865.050048828125</v>
+      </c>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="n">
+        <v>662998</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>3901.85009765625</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>4114.9501953125</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>3841.050048828125</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>4047.5</v>
+      </c>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="n">
+        <v>1864301</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>4047.85009765625</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>4118</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>4090.699951171875</v>
+      </c>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="n">
+        <v>357898</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>4090</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>4099.89990234375</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>4006.050048828125</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>4030.85009765625</v>
+      </c>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="n">
+        <v>297514</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>4038.64990234375</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>4089.949951171875</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>4000.60009765625</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>4040.39990234375</v>
+      </c>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="n">
+        <v>411921</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>4043.949951171875</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>4085.5</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>4011.75</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>4029.699951171875</v>
+      </c>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="n">
+        <v>410609</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>4059.800048828125</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>4059.800048828125</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>3925.5</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>3951.10009765625</v>
+      </c>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="n">
+        <v>506125</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>3942</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>4033.10009765625</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>3904.449951171875</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>4001.699951171875</v>
+      </c>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="n">
+        <v>298595</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>4028.89990234375</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>4045</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>3864.300048828125</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>3877.800048828125</v>
+      </c>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="n">
+        <v>296525</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>3860.35009765625</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>3864</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>3714.199951171875</v>
+      </c>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="n">
+        <v>576684</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>3776.35009765625</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>3776.35009765625</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>3661.60009765625</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>3688.64990234375</v>
+      </c>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="n">
+        <v>358687</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>3699.949951171875</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>3794.449951171875</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>3682.199951171875</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>3785.699951171875</v>
+      </c>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="n">
+        <v>129136</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>3810</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>3811.949951171875</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>3755.550048828125</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>3769.35009765625</v>
+      </c>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="n">
+        <v>405748</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>3769.35009765625</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>3754.14990234375</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>3869.89990234375</v>
+      </c>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="n">
+        <v>359119</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>3869.85009765625</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>4007.550048828125</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>3771</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>3908.10009765625</v>
+      </c>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="n">
+        <v>251230</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>3900</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>3786</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>3810.89990234375</v>
+      </c>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="n">
+        <v>407937</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>3844.949951171875</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>3840.050048828125</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>3868.35009765625</v>
+      </c>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="n">
+        <v>539218</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>4037.949951171875</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>3880.050048828125</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>3992.85009765625</v>
+      </c>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="n">
+        <v>783716</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>4014.800048828125</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>4043.949951171875</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>3922</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>3935.64990234375</v>
+      </c>
+      <c r="F1607" t="inlineStr"/>
+      <c r="G1607" t="n">
+        <v>274765</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>3935.64990234375</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>3970</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>3840.35009765625</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>3922.35009765625</v>
+      </c>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="n">
+        <v>247964</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>3924</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>3955.35009765625</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>3835.75</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>3872.39990234375</v>
+      </c>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="n">
+        <v>231073</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
